--- a/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Sopas e cremes.xlsx
+++ b/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Sopas e cremes.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Creme Cebola Kisabor 65g</t>
+          <t>Sopa Vono Peito Fr C/qjo 17gr</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 7,49</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5151f483-d0f4-4d15-be18-1e40320cd882.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a52a0391-c762-4312-95e4-a81c37c4aaf4.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7891132165148</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sopa Vono Mandioquinha 17gr</t>
+          <t>Creme Culinário Vegano Nude 200g Aveia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/50885514-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2f38d063-8920-4d0e-a6c1-dceecb6e5f52.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7898994939788</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sopa Inst Vono Batata C/carne18gr</t>
+          <t>Sopa Vono Menos Sodio 18g Batata/carne</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/da20cbb5-69df-4aca-8cab-9606351d2c2f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/03690fba-b472-40c0-a206-1e8a52f1a0d2.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7891132110285</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sopa Milho C/ Frango Vono 18gr</t>
+          <t>Sopa Vono Menos Sodio 17g Mandioquinha</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/506b6aa6-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/06106992-05c4-4f86-91df-e0b6a08d3954.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7891132110551</t>
         </is>
       </c>
     </row>
@@ -569,7 +594,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sopa Vono Peito Fr C/qjo 17gr</t>
+          <t>Sopa Vono 18g Aipim C/costela</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -579,7 +604,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a52a0391-c762-4312-95e4-a81c37c4aaf4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/55e2f5d6-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7891132009374</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Creme Maggi Cebola 68g</t>
+          <t>Creme De Cebola Chef Vono 58g Menos Sodio</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9b7a2fa0-183e-467a-abb3-2f972b8bbe72.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce6eb224-655f-453e-b415-aa3082501bbf.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7891132083039</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sopa Vono Abobora C/ Carne 17gr</t>
+          <t>Creme De Cebola Maggi 61g Bacon</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/517bdef4-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/48521b5b-a33d-4c80-9ce6-cfbb40d1df97.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7891000304020</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Creme De Cebola Chef Vono 58g Menos Sodio</t>
+          <t>Sopa Natural Life 20gr Cen/bat/alho Poro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce6eb224-655f-453e-b415-aa3082501bbf.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aa1815b5-5814-45d9-bc57-8eb29188c6cf.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896256065671</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sopa Vono Cald Feijao 18gr</t>
+          <t>Creme De Cebola Vono 58gr</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/50f3781c-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9e714901-a00c-4eda-b049-fe99a26c5c50.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7891132009626</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sopa Vono 18g Aipim C/costela</t>
+          <t>Creme Cebola Kisabor 65g</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 7,49</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/55e2f5d6-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5151f483-d0f4-4d15-be18-1e40320cd882.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7898416525179</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sopa Vono Menos Sodio 17g Mandioquinha</t>
+          <t>Sopa Milho C/ Frango Vono 18gr</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/06106992-05c4-4f86-91df-e0b6a08d3954.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/506b6aa6-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7891132007486</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Creme De Cebola Vono 58gr</t>
+          <t>Sopa Vono Cald Feijao 18gr</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9e714901-a00c-4eda-b049-fe99a26c5c50.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/50f3781c-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7891132007561</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sopa Vono Menos Sodio 18g Batata/carne</t>
+          <t>Sopa Vono Mandioquinha 17gr</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/03690fba-b472-40c0-a206-1e8a52f1a0d2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/50885514-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7891132110551</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Creme De Cebola Maggi 61g Bacon</t>
+          <t>Sopa Inst Vono Batata C/carne18gr</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/48521b5b-a33d-4c80-9ce6-cfbb40d1df97.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/da20cbb5-69df-4aca-8cab-9606351d2c2f.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7891132007509</t>
         </is>
       </c>
     </row>
@@ -839,125 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Creme Culinário Vegano Nude 200g Aveia</t>
+          <t>Sopão Kitano Galinha 196gr</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2f38d063-8920-4d0e-a6c1-dceecb6e5f52.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Sopas e cremes</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Creme De Cebola Knorr Sch 60g</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ae430c13-f0be-4eda-8d66-928742a674e3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Sopas e cremes</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Canjao Maggi Arroz C/ Legumes 200g</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ae3295f5-460d-4d54-bf2c-bb5fb6101b35.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Sopas e cremes</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Sopa Natural Life 20gr Cen/bat/alho Poro</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aa1815b5-5814-45d9-bc57-8eb29188c6cf.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Sopas e cremes</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Sopão Kitano Galinha 196gr</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc9519da-a8ae-42e4-8f78-3ca3f65b57ba.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7891095003884</t>
         </is>
       </c>
     </row>
